--- a/Python workshop (Responses) (1).xlsx
+++ b/Python workshop (Responses) (1).xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\PycharmProjects\Python-workshop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB3C579-E586-4496-BACB-A35ABC4F112F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2376" yWindow="3348" windowWidth="13824" windowHeight="7176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="109">
   <si>
     <t>Timestamp</t>
   </si>
@@ -315,25 +324,57 @@
   </si>
   <si>
     <t>cava</t>
+  </si>
+  <si>
+    <t>3/13/2023 20:11:46</t>
+  </si>
+  <si>
+    <t>Arnaud Mother</t>
+  </si>
+  <si>
+    <t>Fucking Mathieu</t>
+  </si>
+  <si>
+    <t>"Ik heb daar personeel voor" - Arnaud</t>
+  </si>
+  <si>
+    <t>Jochem Claes</t>
+  </si>
+  <si>
+    <t>1/19/2000</t>
+  </si>
+  <si>
+    <t>Redelijk, maar het is suuuuper lang geleden...</t>
+  </si>
+  <si>
+    <t>-... .--- . .-.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -342,7 +383,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -363,49 +404,66 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -595,30 +653,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="18.88"/>
-    <col customWidth="1" min="7" max="7" width="22.75"/>
-    <col customWidth="1" min="8" max="11" width="18.88"/>
-    <col customWidth="1" min="12" max="12" width="57.0"/>
-    <col customWidth="1" min="13" max="19" width="18.88"/>
+    <col min="1" max="6" width="18.88671875" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" customWidth="1"/>
+    <col min="8" max="11" width="18.88671875" customWidth="1"/>
+    <col min="12" max="12" width="57" customWidth="1"/>
+    <col min="13" max="19" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,525 +720,573 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44992.631393564814</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4">
-        <v>27.0</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="1">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>44992.63188261574</v>
+        <v>44992.631882615737</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="4">
-        <v>22.0</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="1">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="5">
-        <v>36648.0</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="K3" s="4">
+        <v>36648</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>44992.64626371527</v>
-      </c>
-      <c r="B4" s="6" t="s">
+        <v>44992.646263715273</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="1">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="5">
-        <v>37518.0</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="K4" s="4">
+        <v>37518</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>44992.77700443287</v>
-      </c>
-      <c r="B5" s="6" t="s">
+        <v>44992.777004432872</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="1">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="5">
-        <v>37378.0</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="K5" s="4">
+        <v>37378</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44992.78071013889</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="4">
-        <v>27.0</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="1">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="5">
-        <v>37475.0</v>
-      </c>
-      <c r="L6" s="4" t="s">
+      <c r="K6" s="4">
+        <v>37475</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>44992.79649258102</v>
-      </c>
-      <c r="B7" s="7" t="s">
+        <v>44992.796492581023</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="1">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="5">
-        <v>37527.0</v>
-      </c>
-      <c r="L7" s="4" t="s">
+      <c r="K7" s="4">
+        <v>37527</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44992.815119108796</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="1">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="5">
-        <v>37382.0</v>
-      </c>
-      <c r="L8" s="4" t="s">
+      <c r="K8" s="4">
+        <v>37382</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44992.833544583336</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="4">
-        <v>21.0</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="1">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="5">
-        <v>37239.0</v>
-      </c>
-      <c r="L9" s="4" t="s">
+      <c r="K9" s="4">
+        <v>37239</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>44992.97414305556</v>
+        <v>44992.974143055559</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="1">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K10" s="5">
-        <v>37487.0</v>
-      </c>
-      <c r="L10" s="4" t="s">
+      <c r="K10" s="4">
+        <v>37487</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44993.522397442124</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="4">
-        <v>21.0</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="1">
+        <v>21</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K11" s="5">
-        <v>37093.0</v>
-      </c>
-      <c r="L11" s="4" t="s">
+      <c r="K11" s="4">
+        <v>37093</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>44994.78940347223</v>
-      </c>
-      <c r="B12" s="7" t="s">
+        <v>44994.789403472227</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="F12" s="1">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="5">
-        <v>37316.0</v>
-      </c>
-      <c r="L12" s="4" t="s">
+      <c r="K12" s="4">
+        <v>37316</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44995.847826620375</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="4">
-        <v>19.0</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="F13" s="1">
+        <v>19</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="5">
-        <v>37960.0</v>
-      </c>
-      <c r="L13" s="4" t="s">
+      <c r="K13" s="4">
+        <v>37960</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>44998.4305903125</v>
-      </c>
-      <c r="B14" s="7" t="s">
+        <v>44998.430590312499</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="4">
-        <v>21.0</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="F14" s="1">
+        <v>21</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K14" s="5">
-        <v>37291.0</v>
-      </c>
-      <c r="L14" s="4" t="s">
+      <c r="K14" s="4">
+        <v>37291</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>100</v>
       </c>
     </row>
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="7">
+        <v>23</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>